--- a/xlsx/人类发展指数列表_intext.xlsx
+++ b/xlsx/人类发展指数列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1057">
   <si>
     <t>人类发展指数列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>世界</t>
   </si>
   <si>
-    <t>政策_政策_美國_人类发展指数列表</t>
+    <t>政策_政策_美国_人类发展指数列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>人類發展報告</t>
+    <t>人类发展报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%BC%80%E5%8F%91%E8%AE%A1%E5%88%92%E7%BD%B2</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%97%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mahbub_ul_Haq</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -359,21 +359,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
   </si>
   <si>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -491,19 +488,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -683,19 +680,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -707,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%8A%A0</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -893,19 +890,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -995,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1037,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -1229,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1295,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1319,27 +1316,24 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%90%84%E5%9C%8B%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>非洲各國人類發展指數列表</t>
+    <t>非洲各国人类发展指数列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%90%84%E5%9C%8B%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>歐洲各國人類發展指數列表</t>
+    <t>欧洲各国人类发展指数列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
@@ -1379,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>亞太區</t>
+    <t>亚太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉伯地區</t>
+    <t>阿拉伯地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B2%9B%E5%B1%BF%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -1415,15 +1409,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -1445,19 +1436,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -1499,19 +1487,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -1523,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -1541,37 +1529,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF</t>
   </si>
   <si>
-    <t>荷屬安地列斯</t>
+    <t>荷属安地列斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1583,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1607,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
@@ -1637,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -1649,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1667,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B5%B1%E8%A8%88%E6%9A%A8%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>澳門統計暨普查局</t>
+    <t>澳门统计暨普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD</t>
@@ -1679,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E4%B8%BB%E8%A8%88%E7%B8%BD%E8%99%95</t>
   </si>
   <si>
-    <t>行政院主計總處</t>
+    <t>行政院主计总处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_Nations_Development_Programme</t>
@@ -1727,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
+    <t>地球科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -1787,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E9%BB%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低點列表</t>
+    <t>各国最低点列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B5%B7%E5%B2%B8%E7%BA%BF%E9%95%BF%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -1817,13 +1802,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%84%B0%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鄰國列表</t>
+    <t>各国邻国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國時區列表</t>
+    <t>各国时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -1835,7 +1820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>環境可持續指數</t>
+    <t>环境可持续指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
@@ -1871,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國世界遺產數列表</t>
+    <t>各国世界遗产数列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Happy_Planet_Index</t>
@@ -1883,19 +1868,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%BE%B2%E6%A5%AD%E7%94%A2%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國農業產值列表</t>
+    <t>各国农业产值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%B0%B7%E7%89%A9%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -1937,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -1949,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%83%BD%E6%BA%90%E7%94%9F%E7%94%A2%E5%8F%8A%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國能源生產及消耗列表</t>
+    <t>各国能源生产及消耗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AF%8F%E5%B9%B4%E4%BA%BA%E5%9D%87%E8%83%BD%E9%87%8F%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
@@ -1961,13 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9B%BB%E5%8A%9B%E6%B6%88%E8%80%97%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家電力消耗排名列表</t>
+    <t>国家电力消耗排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%99%BC%E9%9B%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國發電量列表</t>
+    <t>各国发电量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%9F%B3%E6%B2%B9</t>
@@ -2075,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%9F%BD%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國矽產量列表</t>
+    <t>各国矽产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%BB%E7%9F%B3</t>
@@ -2117,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8B%B0%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鋰產量列表</t>
+    <t>各国锂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%94%8C%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2129,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8A%80%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國銀產量列表</t>
+    <t>各国银产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%BB%84%E9%87%91%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2141,13 +2126,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%89%91%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鉑產量列表</t>
+    <t>各国铂产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%8E%82%E7%94%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鎂產量列表</t>
+    <t>各国镁产量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%93%8B%E4%BA%A7%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2171,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%85%AC%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -2219,37 +2204,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家鐵路里程列表</t>
+    <t>国家铁路里程列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%90%B5%E8%B7%AF%E5%88%A9%E7%94%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國鐵路利用列表</t>
+    <t>各国铁路利用列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>高速鐵路線列表</t>
+    <t>高速铁路线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E5%9C%B0%E9%90%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市地鐵列表</t>
+    <t>世界各城市地铁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A%E5%B9%B4%E4%B9%98%E5%AE%A2%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界城市軌道交通年乘客量列表</t>
+    <t>世界城市轨道交通年乘客量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9F%8E%E5%B8%82%E8%B7%AF%E9%9D%A2%E9%9B%BB%E8%BB%8A%E8%88%87%E8%BC%95%E8%BB%8C%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界各城市路面電車與輕軌系統列表</t>
+    <t>世界各城市路面电车与轻轨系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B0%B4%E8%B7%AF%E6%80%BB%E9%87%8C%E7%A8%8B%E5%88%97%E8%A1%A8</t>
@@ -2261,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%95%86%E8%88%B9%E5%99%B8%E4%BD%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國商船噸位列表</t>
+    <t>各国商船吨位列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0%E6%9C%BA%E5%9C%BA%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2279,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BA%E5%AE%9A%E7%94%B5%E8%AF%9D%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -2297,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F%E6%99%AE%E5%8F%8A%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國智慧型手機普及率列表</t>
+    <t>各国智慧型手机普及率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%92%E8%81%94%E7%BD%91%E4%BD%BF%E7%94%A8%E8%80%85%E6%95%B0%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -2333,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -2351,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/1950%E5%B9%B4%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>1950年國家人口列表</t>
+    <t>1950年国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
@@ -2375,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9F%8E%E5%B8%82%E5%8C%96%E6%AF%94%E7%8E%87</t>
@@ -2423,19 +2408,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%95%86%E8%88%87%E5%9C%8B%E6%B0%91%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>智商與國民財富</t>
+    <t>智商与国民财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>各國諾貝爾獎得主人數</t>
+    <t>各国诺贝尔奖得主人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>衛生</t>
+    <t>卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%8F%A3%E5%87%BA%E7%94%9F%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -2459,7 +2444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -2471,7 +2456,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E8%BA%AB%E9%AB%98</t>
   </si>
   <si>
-    <t>人類身高</t>
+    <t>人类身高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A9%B4%E5%84%BF%E6%AD%BB%E4%BA%A1%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -2507,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E6%88%90%E6%9E%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國醫療衛生成果列表</t>
+    <t>各国医疗卫生成果列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -2549,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -2585,13 +2570,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政體列表</t>
+    <t>政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -2603,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%8C%87%E6%95%B0</t>
@@ -2615,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%88%87%E7%8D%A8%E8%A3%81%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>民主與獨裁指數</t>
+    <t>民主与独裁指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E8%B4%BF%E6%8C%87%E6%95%B0</t>
@@ -2627,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>貪污感知指數</t>
+    <t>贪污感知指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%B4%A5%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -2645,13 +2630,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AF%A6%E5%8A%9B%E7%B6%9C%E5%90%88%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>國家實力綜合指數</t>
+    <t>国家实力综合指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8A%9B</t>
   </si>
   <si>
-    <t>軍事力</t>
+    <t>军事力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F%E5%88%97%E8%A1%A8</t>
@@ -2663,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A%E5%90%84%E5%9C%8B%E5%85%B5%E5%8A%9B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國維和部隊各國兵力列表</t>
+    <t>联合国维和部队各国兵力列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%A2%84%E7%AE%97%E5%88%97%E8%A1%A8</t>
@@ -2675,7 +2660,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%81%E6%9C%89%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>核武器擁有國列表</t>
+    <t>核武器拥有国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%AD%A6%E5%AF%9F%E6%95%B0%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -2687,7 +2672,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>沒有軍隊的國家列表</t>
+    <t>没有军队的国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E8%A3%85%E5%A4%87%E6%B0%B4%E5%B9%B3</t>
@@ -2741,19 +2726,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國死刑列表</t>
+    <t>各国死刑列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球恐怖主義指數</t>
+    <t>全球恐怖主义指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
@@ -2765,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -2825,7 +2810,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%84%B2%E8%93%84%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国儲蓄率列表</t>
+    <t>各国储蓄率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -2837,7 +2822,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%AB%B6%E7%88%AD%E5%8A%9B%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球競爭力報告</t>
+    <t>全球竞争力报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BA%A7%E6%9D%83%E6%8C%87%E6%95%B0</t>
@@ -2873,7 +2858,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國最低工資列表</t>
+    <t>各国最低工资列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%88%BF%E4%BB%B7%E6%94%B6%E5%85%A5%E6%AF%94%E5%88%97%E8%A1%A8</t>
@@ -2885,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A0%94%E7%A9%B6%E4%B8%8E%E5%BC%80%E5%8F%91%E7%BB%8F%E8%B4%B9%E5%88%97%E8%A1%A8</t>
@@ -2945,25 +2930,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BF%A1%E7%94%A8%E8%A9%95%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國信用評級列表</t>
+    <t>各国信用评级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%A4%96%E5%8C%AF%E5%84%B2%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國外匯儲備列表</t>
+    <t>各国外汇储备列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%84%B2%E5%82%99</t>
   </si>
   <si>
-    <t>黃金儲備</t>
+    <t>黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6%E7%9A%84%E5%A4%96%E9%83%A8%E8%B3%87%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>主權國家的外部資產列表</t>
+    <t>主权国家的外部资产列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_countries_by_sovereign_wealth_funds</t>
@@ -2981,7 +2966,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%95%86%E4%B8%9A%E9%93%B6%E8%A1%8C%E6%9C%80%E5%84%AA%E6%83%A0%E5%88%A9%E7%8E%87%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各国商业银行最優惠利率列表</t>
+    <t>各国商业银行最优惠利率列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
@@ -3029,7 +3014,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9B%BA%E5%AE%9A%E6%8A%95%E8%B3%87%E7%B8%BD%E9%A1%8D%E8%88%87GDP%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國固定投資總額與GDP比例列表</t>
+    <t>各国固定投资总额与GDP比例列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9</t>
@@ -3053,7 +3038,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E4%B9%B3%E9%A1%9E%E6%B6%88%E8%B2%BB%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國人均乳類消費量列表</t>
+    <t>各国人均乳类消费量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E7%83%9F%E8%8D%89%E6%B6%88%E8%B4%B9%E9%87%8F%E5%88%97%E8%A1%A8</t>
@@ -3089,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E4%B8%BB%E8%BE%A6%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>奧林匹克運動會主辦城市列表</t>
+    <t>奥林匹克运动会主办城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E5%A5%96%E7%89%8C%E7%BB%9F%E8%AE%A1</t>
@@ -3101,19 +3086,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B6%B3%E7%B8%BD%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際足總世界排名</t>
+    <t>国际足总世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E4%B8%BB%E8%BE%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>世界盃主辦國</t>
+    <t>世界杯主办国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E6%B1%BA%E8%B3%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界盃足球賽決賽列表</t>
+    <t>世界杯足球赛决赛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
@@ -3125,7 +3110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A3%92%E7%90%83%E7%B8%BD%E6%9C%83%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>國際棒球總會世界排名</t>
+    <t>国际棒球总会世界排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E8%B4%A8%E9%87%8F%E6%8C%87%E6%95%B0</t>
@@ -3143,7 +3128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%80%A7%E5%88%A5%E5%B7%AE%E8%B7%9D%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球性別差距報告</t>
+    <t>全球性别差距报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%85%E6%B8%B8%E6%8E%92%E5%90%8D</t>
@@ -3155,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%BF%AB%E6%A8%82%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>世界快樂報告</t>
+    <t>世界快乐报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%B9%B8%E7%A6%8F%E6%80%BB%E5%80%BC</t>
@@ -3167,13 +3152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%BD%E7%94%9F%E6%B4%BB%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>美好生活指數</t>
+    <t>美好生活指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E8%89%AF%E5%9C%8B%E5%AE%B6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>優良國家指數</t>
+    <t>优良国家指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%A4%BE%E4%BC%9A%E8%BF%9B%E6%AD%A5%E6%8C%87%E6%95%B0%E5%88%97%E8%A1%A8</t>
@@ -3191,7 +3176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E8%81%B2%E8%AD%BD%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>各國聲譽排名</t>
+    <t>各国声誉排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8%E5%88%97%E8%A1%A8</t>
@@ -5253,7 +5238,7 @@
         <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5279,10 +5264,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -5308,10 +5293,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -5337,10 +5322,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -5366,10 +5351,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -5395,10 +5380,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -5424,10 +5409,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -5453,10 +5438,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -5482,10 +5467,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -5511,10 +5496,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -5540,10 +5525,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -5569,10 +5554,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -5598,10 +5583,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -5627,10 +5612,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -5656,10 +5641,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -5685,10 +5670,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -5714,10 +5699,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -5743,10 +5728,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -5772,10 +5757,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -5801,10 +5786,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -5830,10 +5815,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -5859,10 +5844,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -5888,10 +5873,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -5917,10 +5902,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -5946,10 +5931,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5975,10 +5960,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -6004,10 +5989,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -6033,10 +6018,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -6062,10 +6047,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -6091,10 +6076,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -6120,10 +6105,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -6149,10 +6134,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -6178,10 +6163,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -6207,10 +6192,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -6236,10 +6221,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6265,10 +6250,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -6294,10 +6279,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6323,10 +6308,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6352,10 +6337,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -6381,10 +6366,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6410,10 +6395,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6439,10 +6424,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -6468,10 +6453,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6497,10 +6482,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -6526,10 +6511,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -6555,10 +6540,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6584,10 +6569,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -6613,10 +6598,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -6642,10 +6627,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6671,10 +6656,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -6700,10 +6685,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6729,10 +6714,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -6758,10 +6743,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6787,10 +6772,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -6816,10 +6801,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -6845,10 +6830,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -6874,10 +6859,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -6903,10 +6888,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -6932,10 +6917,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6961,10 +6946,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6990,10 +6975,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -7019,10 +7004,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -7048,10 +7033,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7077,10 +7062,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7106,10 +7091,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7135,10 +7120,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7164,10 +7149,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7193,10 +7178,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -7222,10 +7207,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7251,10 +7236,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7280,10 +7265,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -7309,10 +7294,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -7338,10 +7323,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7367,10 +7352,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7396,10 +7381,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -7425,10 +7410,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7454,10 +7439,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -7483,10 +7468,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7512,10 +7497,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7541,10 +7526,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -7570,10 +7555,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7599,10 +7584,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -7628,10 +7613,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -7657,10 +7642,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7686,10 +7671,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7715,10 +7700,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7773,10 +7758,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -7802,10 +7787,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -7831,10 +7816,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -7860,10 +7845,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -7889,10 +7874,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -7918,10 +7903,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7947,10 +7932,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -7976,10 +7961,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8005,10 +7990,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -8034,10 +8019,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -8063,10 +8048,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -8092,10 +8077,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8121,10 +8106,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8150,10 +8135,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -8179,10 +8164,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8208,10 +8193,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -8237,10 +8222,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -8266,10 +8251,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -8295,10 +8280,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -8324,10 +8309,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8353,10 +8338,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8382,10 +8367,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -8411,10 +8396,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8440,10 +8425,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -8469,10 +8454,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8498,10 +8483,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8527,10 +8512,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8556,10 +8541,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -8585,10 +8570,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -8614,10 +8599,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -8643,10 +8628,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8672,10 +8657,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8701,10 +8686,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -8730,10 +8715,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8759,10 +8744,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8788,10 +8773,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8817,10 +8802,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8846,10 +8831,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -8875,10 +8860,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8904,10 +8889,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8933,10 +8918,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8962,10 +8947,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8991,10 +8976,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9020,10 +9005,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -9049,10 +9034,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9078,10 +9063,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9107,10 +9092,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9136,10 +9121,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9165,10 +9150,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -9194,10 +9179,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9223,10 +9208,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9252,10 +9237,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -9281,10 +9266,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -9310,10 +9295,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9339,10 +9324,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9368,10 +9353,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -9397,10 +9382,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9426,10 +9411,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9455,10 +9440,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9484,10 +9469,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9513,10 +9498,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9542,10 +9527,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9571,10 +9556,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9600,10 +9585,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -9629,10 +9614,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -9658,10 +9643,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9687,10 +9672,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>12</v>
@@ -9716,10 +9701,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9745,10 +9730,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9774,10 +9759,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -9803,10 +9788,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9832,10 +9817,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9861,10 +9846,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9890,10 +9875,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>6</v>
@@ -9919,10 +9904,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9948,10 +9933,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>18</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9977,10 +9962,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10006,10 +9991,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -10035,10 +10020,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>7</v>
@@ -10064,10 +10049,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10093,10 +10078,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -10122,10 +10107,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10151,10 +10136,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10180,10 +10165,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10209,10 +10194,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10238,10 +10223,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10267,10 +10252,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10296,10 +10281,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10325,10 +10310,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10354,10 +10339,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>22</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10383,10 +10368,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10412,10 +10397,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10441,10 +10426,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10470,10 +10455,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10499,10 +10484,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>30</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10528,10 +10513,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10557,10 +10542,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10586,10 +10571,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10615,10 +10600,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10644,10 +10629,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10673,10 +10658,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10702,10 +10687,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10731,10 +10716,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10760,10 +10745,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10789,10 +10774,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10818,10 +10803,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10847,10 +10832,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10876,10 +10861,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10905,10 +10890,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10934,10 +10919,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10963,10 +10948,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10992,10 +10977,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11021,10 +11006,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11050,10 +11035,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11079,10 +11064,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11108,10 +11093,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11137,10 +11122,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11166,10 +11151,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11195,10 +11180,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11224,10 +11209,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11253,10 +11238,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11282,10 +11267,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11311,10 +11296,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11340,10 +11325,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11369,10 +11354,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11398,10 +11383,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11427,10 +11412,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11456,10 +11441,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11485,10 +11470,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11514,10 +11499,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11543,10 +11528,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11572,10 +11557,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11601,10 +11586,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11630,10 +11615,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11659,10 +11644,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11688,10 +11673,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G281" t="n">
         <v>4</v>
@@ -11717,10 +11702,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>432</v>
+      </c>
+      <c r="F282" t="s">
         <v>433</v>
-      </c>
-      <c r="F282" t="s">
-        <v>434</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -11746,10 +11731,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>436</v>
+      </c>
+      <c r="F283" t="s">
         <v>437</v>
-      </c>
-      <c r="F283" t="s">
-        <v>438</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11775,10 +11760,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11804,10 +11789,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>5</v>
@@ -11833,10 +11818,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11862,10 +11847,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11891,10 +11876,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11920,10 +11905,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11949,10 +11934,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11978,10 +11963,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12007,10 +11992,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12036,10 +12021,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12065,10 +12050,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12094,10 +12079,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -12123,10 +12108,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12152,10 +12137,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12181,10 +12166,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12210,10 +12195,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12239,10 +12224,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12268,10 +12253,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12297,10 +12282,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12326,10 +12311,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12355,10 +12340,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12384,10 +12369,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12413,10 +12398,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12442,10 +12427,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12471,10 +12456,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12500,10 +12485,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12529,10 +12514,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12558,10 +12543,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12587,10 +12572,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12616,10 +12601,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12645,10 +12630,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12674,10 +12659,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12703,10 +12688,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12732,10 +12717,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12761,10 +12746,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12790,10 +12775,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12819,10 +12804,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12848,10 +12833,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12877,10 +12862,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12906,10 +12891,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12935,10 +12920,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F324" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12964,10 +12949,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F325" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12993,10 +12978,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F326" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13022,10 +13007,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F327" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13051,10 +13036,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F328" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13080,10 +13065,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13109,10 +13094,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -13138,10 +13123,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -13167,10 +13152,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G332" t="n">
         <v>8</v>
@@ -13196,10 +13181,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13225,10 +13210,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F334" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13254,10 +13239,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F335" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13283,10 +13268,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F336" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13312,10 +13297,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F337" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13341,10 +13326,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F338" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13370,10 +13355,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F339" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13399,10 +13384,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F340" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13428,10 +13413,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F341" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13457,10 +13442,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F342" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13486,10 +13471,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F343" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13515,10 +13500,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F344" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13544,10 +13529,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F345" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13573,10 +13558,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13602,10 +13587,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13631,10 +13616,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13660,10 +13645,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G349" t="n">
         <v>5</v>
@@ -13689,10 +13674,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13718,10 +13703,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13747,10 +13732,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13776,10 +13761,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13805,10 +13790,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13834,10 +13819,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13863,10 +13848,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13892,10 +13877,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13921,10 +13906,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13950,10 +13935,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13979,10 +13964,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14008,10 +13993,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14037,10 +14022,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14066,10 +14051,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14095,10 +14080,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F364" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14124,10 +14109,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F365" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14153,10 +14138,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F366" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14182,10 +14167,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F367" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14211,10 +14196,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F368" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14240,10 +14225,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F369" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14269,10 +14254,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F370" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14298,10 +14283,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F371" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14327,10 +14312,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F372" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14356,10 +14341,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F373" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14385,10 +14370,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F374" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14414,10 +14399,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F375" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14443,10 +14428,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F376" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14472,10 +14457,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F377" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14501,10 +14486,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F378" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14530,10 +14515,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F379" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14559,10 +14544,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F380" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14588,10 +14573,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F381" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14617,10 +14602,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F382" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14646,10 +14631,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F383" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14675,10 +14660,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F384" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14704,10 +14689,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F385" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14733,10 +14718,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F386" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14762,10 +14747,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F387" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14791,10 +14776,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F388" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14820,10 +14805,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F389" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14849,10 +14834,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F390" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14878,10 +14863,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F391" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
@@ -14907,10 +14892,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F392" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14936,10 +14921,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F393" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14965,10 +14950,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F394" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14994,10 +14979,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F395" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15023,10 +15008,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F396" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15052,10 +15037,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F397" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15081,10 +15066,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F398" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15110,10 +15095,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F399" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15139,10 +15124,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F400" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15168,10 +15153,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F401" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15197,10 +15182,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F402" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15226,10 +15211,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F403" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15255,10 +15240,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F404" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15284,10 +15269,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F405" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15313,10 +15298,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F406" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15342,10 +15327,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F407" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15371,10 +15356,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F408" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15400,10 +15385,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F409" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15429,10 +15414,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F410" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15458,10 +15443,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F411" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15487,10 +15472,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F412" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15516,10 +15501,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F413" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15545,10 +15530,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F414" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15574,10 +15559,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F415" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G415" t="n">
         <v>3</v>
@@ -15603,10 +15588,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F416" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15632,10 +15617,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F417" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15661,10 +15646,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F418" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15690,10 +15675,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F419" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15719,10 +15704,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F420" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G420" t="n">
         <v>6</v>
@@ -15748,10 +15733,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F421" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15777,10 +15762,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F422" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15806,10 +15791,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F423" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15835,10 +15820,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F424" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15864,10 +15849,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F425" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15893,10 +15878,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F426" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15922,10 +15907,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F427" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15951,10 +15936,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F428" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15980,10 +15965,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F429" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16009,10 +15994,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F430" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16038,10 +16023,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F431" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16067,10 +16052,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F432" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16096,10 +16081,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F433" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16125,10 +16110,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F434" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16154,10 +16139,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F435" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16183,10 +16168,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F436" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16212,10 +16197,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F437" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16241,10 +16226,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F438" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16270,10 +16255,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F439" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16299,10 +16284,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F440" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16328,10 +16313,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F441" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16357,10 +16342,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F442" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16386,10 +16371,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F443" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16415,10 +16400,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F444" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16444,10 +16429,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F445" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16473,10 +16458,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F446" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16502,10 +16487,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F447" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16531,10 +16516,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F448" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16560,10 +16545,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F449" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16589,10 +16574,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F450" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16618,10 +16603,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F451" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16647,10 +16632,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F452" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16676,10 +16661,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F453" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16705,10 +16690,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F454" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16734,10 +16719,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F455" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16763,10 +16748,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F456" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16792,10 +16777,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F457" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16821,10 +16806,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F458" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16850,10 +16835,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F459" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16879,10 +16864,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F460" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16908,10 +16893,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F461" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G461" t="n">
         <v>7</v>
@@ -16937,10 +16922,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F462" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16966,10 +16951,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F463" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16995,10 +16980,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F464" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G464" t="n">
         <v>27</v>
@@ -17024,10 +17009,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F465" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17053,10 +17038,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F466" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17082,10 +17067,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F467" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17111,10 +17096,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F468" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17140,10 +17125,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F469" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G469" t="n">
         <v>9</v>
@@ -17169,10 +17154,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F470" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17198,10 +17183,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F471" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17227,10 +17212,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F472" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17256,10 +17241,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F473" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17285,10 +17270,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F474" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17314,10 +17299,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F475" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17343,10 +17328,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F476" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17372,10 +17357,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F477" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17401,10 +17386,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F478" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17430,10 +17415,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F479" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17459,10 +17444,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F480" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17488,10 +17473,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F481" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17517,10 +17502,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F482" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17546,10 +17531,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F483" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17575,10 +17560,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F484" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17604,10 +17589,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F485" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17633,10 +17618,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F486" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17662,10 +17647,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F487" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17691,10 +17676,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F488" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17720,10 +17705,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F489" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17749,10 +17734,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F490" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17778,10 +17763,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F491" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17807,10 +17792,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F492" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17836,10 +17821,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F493" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17865,10 +17850,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F494" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17894,10 +17879,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F495" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17923,10 +17908,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F496" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17952,10 +17937,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F497" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17981,10 +17966,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F498" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18010,10 +17995,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F499" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18039,10 +18024,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F500" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18068,10 +18053,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F501" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18097,10 +18082,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F502" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18126,10 +18111,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F503" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18155,10 +18140,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F504" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18184,10 +18169,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F505" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18213,10 +18198,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F506" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18242,10 +18227,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F507" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G507" t="n">
         <v>3</v>
@@ -18271,10 +18256,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F508" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18300,10 +18285,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F509" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18329,10 +18314,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F510" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18358,10 +18343,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F511" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18387,10 +18372,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F512" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18416,10 +18401,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F513" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18445,10 +18430,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F514" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18474,10 +18459,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F515" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18503,10 +18488,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F516" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18532,10 +18517,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F517" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18561,10 +18546,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F518" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18590,10 +18575,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="F519" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18619,10 +18604,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F520" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18648,10 +18633,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F521" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18677,10 +18662,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F522" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18706,10 +18691,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F523" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18735,10 +18720,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F524" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18764,10 +18749,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F525" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18793,10 +18778,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F526" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18822,10 +18807,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F527" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18851,10 +18836,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F528" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18880,10 +18865,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F529" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18909,10 +18894,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F530" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18938,10 +18923,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F531" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18967,10 +18952,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F532" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18996,10 +18981,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="F533" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19025,10 +19010,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F534" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G534" t="n">
         <v>5</v>
@@ -19054,10 +19039,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F535" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>

--- a/xlsx/人类发展指数列表_intext.xlsx
+++ b/xlsx/人类发展指数列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界</t>
   </si>
   <si>
-    <t>政策_政策_美國_人类发展指数列表</t>
+    <t>体育运动_体育运动_伊朗_人类发展指数列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
